--- a/Assignment 2/Facebook tst.xlsx
+++ b/Assignment 2/Facebook tst.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
     <sheet name="Testcase" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -329,9 +328,6 @@
 Password:</t>
   </si>
   <si>
-    <t xml:space="preserve">checking  login button  with without spcail charcter in  email </t>
-  </si>
-  <si>
     <t>Username:msd.gmail.com
 Password:</t>
   </si>
@@ -599,6 +595,9 @@
   </si>
   <si>
     <t>To open to find your account page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checking  login button  with without special character in  email </t>
   </si>
 </sst>
 </file>
@@ -1498,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1726,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>80</v>
@@ -1735,7 +1734,7 @@
         <v>87</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>93</v>
@@ -1755,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>80</v>
@@ -1764,7 +1763,7 @@
         <v>87</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>93</v>
@@ -1790,13 +1789,13 @@
         <v>80</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>85</v>
@@ -1819,13 +1818,13 @@
         <v>80</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>85</v>
@@ -1848,13 +1847,13 @@
         <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>85</v>
@@ -1877,13 +1876,13 @@
         <v>80</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>85</v>
@@ -1906,13 +1905,13 @@
         <v>80</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>85</v>
@@ -1935,13 +1934,13 @@
         <v>80</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>85</v>
@@ -1964,13 +1963,13 @@
         <v>80</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>85</v>
@@ -1993,13 +1992,13 @@
         <v>80</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>85</v>
@@ -2022,13 +2021,13 @@
         <v>80</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>85</v>
@@ -2051,13 +2050,13 @@
         <v>80</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>85</v>
@@ -2080,13 +2079,13 @@
         <v>80</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>85</v>
@@ -2109,13 +2108,13 @@
         <v>80</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>85</v>
@@ -2138,13 +2137,13 @@
         <v>80</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>85</v>
@@ -2167,13 +2166,13 @@
         <v>80</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>85</v>
@@ -2196,13 +2195,13 @@
         <v>80</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>85</v>
@@ -2225,13 +2224,13 @@
         <v>80</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>85</v>
@@ -2254,13 +2253,13 @@
         <v>80</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>85</v>
@@ -2283,13 +2282,13 @@
         <v>80</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>85</v>
@@ -2312,13 +2311,13 @@
         <v>80</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>85</v>
@@ -2341,13 +2340,13 @@
         <v>80</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>85</v>
@@ -2370,13 +2369,13 @@
         <v>80</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>85</v>
@@ -2399,13 +2398,13 @@
         <v>80</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>85</v>
@@ -2428,13 +2427,13 @@
         <v>80</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>85</v>
@@ -2457,13 +2456,13 @@
         <v>80</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>85</v>
@@ -2486,13 +2485,13 @@
         <v>80</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>85</v>
@@ -2515,13 +2514,13 @@
         <v>80</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>85</v>
@@ -2544,13 +2543,13 @@
         <v>80</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>85</v>
@@ -2573,13 +2572,13 @@
         <v>80</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>85</v>
@@ -2602,13 +2601,13 @@
         <v>80</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>85</v>
@@ -2631,13 +2630,13 @@
         <v>80</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>85</v>
@@ -2660,13 +2659,13 @@
         <v>80</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>85</v>
@@ -2689,13 +2688,13 @@
         <v>80</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>85</v>
@@ -2718,13 +2717,13 @@
         <v>80</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>85</v>
@@ -2990,16 +2989,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>